--- a/input/reg_health_wellbeing.xlsx
+++ b/input/reg_health_wellbeing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr dateCompatibility="0"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\andy_local\SimPaths project files\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F93C2529-06A9-4699-9EFC-307CF7154C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C4896B8E-22A4-48B8-9C84-4AC2528CFD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK_DHE_MCS1" sheetId="1" r:id="rId1"/>
@@ -24,16 +24,11 @@
     <sheet name="UK_DLS2_Females" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="288" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="42">
   <si>
     <t>REGRESSOR</t>
   </si>
@@ -164,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,8 +179,8 @@
   </fills>
   <borders count="1">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -214,7 +209,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -325,22 +320,22 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50%"/>
-                <a:satMod val="300%"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35%">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:tint val="37%"/>
-                <a:satMod val="300%"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15%"/>
-                <a:satMod val="350%"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -348,22 +343,22 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51%"/>
-                <a:satMod val="130%"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80%">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93%"/>
-                <a:satMod val="130%"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94%"/>
-                <a:satMod val="135%"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -374,8 +369,8 @@
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95%"/>
-              <a:satMod val="105%"/>
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -398,7 +393,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38%"/>
+                <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -407,7 +402,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35%"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -416,7 +411,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35%"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -439,47 +434,47 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40%"/>
-                <a:satMod val="350%"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40%">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="45%"/>
-                <a:shade val="99%"/>
-                <a:satMod val="350%"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20%"/>
-                <a:satMod val="255%"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50%" t="-80%" r="50%" b="180%"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80%"/>
-                <a:satMod val="300%"/>
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30%"/>
-                <a:satMod val="200%"/>
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50%" t="50%" r="50%" b="50%"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -491,7 +486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3358,7 +3353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3663,7 +3658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3968,7 +3963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6835,7 +6830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7140,7 +7135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7445,7 +7440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10312,7 +10307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10617,7 +10612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
